--- a/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>12,695.90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13,127.20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12,192.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12,250.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>12,596.10</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12,250.40</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12,192.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13,127.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,695.90</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>13127.2</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>12192.9</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>12572.5</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>12,695.90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13,127.20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12,192.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12,250.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>12,596.10</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12,250.40</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12,192.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13,127.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12,695.90</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>13127.2</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>12192.9</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>12572.5</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>184.70</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244.20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>137.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>153.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>126.50</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>153.70</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>137.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>244.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>184.70</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>169.22</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>-24.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>43.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-24</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>13.48</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>6,559.30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6,811.40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6,424.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6,661.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>6,597.90</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6,661.30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6,424.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6,811.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6,559.30</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>6811.4</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>6424.2</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>6610.82</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>293.70</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>309.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>321.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>350.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>333.40</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>350.90</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>321.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>309.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>293.70</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>350.9</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>293.7</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>321.74</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>23.90</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>23.8</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,194.40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,434.30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,994.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,709.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,673.40</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,709.30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,994.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,434.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,194.40</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3434.3</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2673.4</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3001.12</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,446.40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,317.80</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,272.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,331.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,865.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,331.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,272.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,317.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,446.40</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2865</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2272.8</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2446.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>521.20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>563.70</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>626.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>624.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>599.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>624.60</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>626.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>563.70</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>521.20</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>626.1</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>521.2</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>586.9200000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,967.60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,881.50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,898.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,955.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,464.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2,955.60</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,898.90</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,881.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,967.60</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3464</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2881.5</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3033.52</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>134.90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>118.80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>102.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>112.50</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>102.60</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>118.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>134.90</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>113.76</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,832.70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,762.70</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,798.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,853.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,351.50</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,853.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,798.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,762.70</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,832.70</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3351.5</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2762.7</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2919.76</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,832.70</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,762.70</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,798.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,853.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>3,351.50</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,853.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,798.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,762.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,832.70</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3351.5</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2762.7</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2919.76</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>571.40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>604.40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>606.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>609.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>740.20</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>609.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>606.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>604.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>571.40</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>740.2</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>571.4</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>626.26</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,261.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,158.30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,192.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,244.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,611.30</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,244.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,192.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,158.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,261.30</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2611.3</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2158.3</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2293.5</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,261.30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,158.30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,192.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,244.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,611.30</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,244.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,192.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,158.30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,261.30</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2611.3</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2158.3</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2293.5</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,142.60</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,142.70</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,142.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,143.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,143.10</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,143.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,142.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,142.70</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,142.60</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1143.1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1142.6</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1142.86</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>4.58</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>4.022</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>4.55</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>4.008</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>4.58</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>4.018</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>4.55</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>4.008</v>
       </c>
     </row>
     <row r="30"/>
